--- a/Projects/Federal Reserve Data/CAAggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/CAAggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>C/A</t>
   </si>
@@ -34,22 +34,13 @@
     <t>FFR Lag</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>r2_adj</t>
-  </si>
-  <si>
-    <t>-0.959***</t>
-  </si>
-  <si>
-    <t>0.212*</t>
-  </si>
-  <si>
-    <t>12.033***</t>
-  </si>
-  <si>
-    <t>0.707</t>
+    <t>-0.958***</t>
+  </si>
+  <si>
+    <t>0.211*</t>
+  </si>
+  <si>
+    <t>12.037***</t>
   </si>
   <si>
     <t>-0.159***</t>
@@ -61,19 +52,13 @@
     <t>8.418***</t>
   </si>
   <si>
-    <t>-0.007</t>
-  </si>
-  <si>
     <t>-0.028***</t>
   </si>
   <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.093</t>
-  </si>
-  <si>
-    <t>0.212**</t>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t>0.094</t>
   </si>
 </sst>
 </file>
@@ -431,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,13 +438,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -467,13 +452,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -481,41 +466,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.72</v>
-      </c>
-      <c r="C6">
-        <v>0.85</v>
-      </c>
-      <c r="D6">
-        <v>0.27</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/Federal Reserve Data/CAAggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/CAAggregated C-A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
@@ -14,51 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>C/A</t>
   </si>
   <si>
+    <t>FFR</t>
+  </si>
+  <si>
     <t>LF</t>
   </si>
   <si>
-    <t>FFR</t>
+    <t>Source</t>
   </si>
   <si>
     <t>C/A Lag</t>
   </si>
   <si>
+    <t>FFR Lag</t>
+  </si>
+  <si>
     <t>LF Lag</t>
   </si>
   <si>
-    <t>FFR Lag</t>
-  </si>
-  <si>
     <t>-0.958***</t>
   </si>
   <si>
+    <t>12.037***</t>
+  </si>
+  <si>
     <t>0.211*</t>
   </si>
   <si>
-    <t>12.037***</t>
+    <t>-0.028***</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>-0.011</t>
   </si>
   <si>
     <t>-0.159***</t>
   </si>
   <si>
-    <t>-0.2***</t>
-  </si>
-  <si>
     <t>8.418***</t>
   </si>
   <si>
-    <t>-0.028***</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>0.094</t>
+    <t>-0.2**</t>
   </si>
 </sst>
 </file>
@@ -423,6 +426,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,44 +441,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
